--- a/prototype/alr_ig/output/StructureDefinition-alr-Group.xlsx
+++ b/prototype/alr_ig/output/StructureDefinition-alr-Group.xlsx
@@ -128,7 +128,7 @@
     <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
-    <t>Mapping: Legacy CSV Assignment List Report</t>
+    <t>Mapping: CMS Assignment List Report</t>
   </si>
   <si>
     <t>Group</t>
@@ -1245,7 +1245,7 @@
     <t>ALR Change Reason Description</t>
   </si>
   <si>
-    <t>GHP_EXCLUDED</t>
+    <t>OTHER_SHARED_SAV_INT</t>
   </si>
   <si>
     <t>ext-claimsBasedAssignmentFlag</t>
@@ -1517,44 +1517,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.75390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.7109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="40.90625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.5" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="31.33203125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="95.9140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="91.81640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="147.61328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.3125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="25.328125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="43.0625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="35.3359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="138.56640625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.8359375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="24.4609375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="192.80859375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="43.8515625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="182.2109375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="35.96875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/prototype/alr_ig/output/StructureDefinition-alr-Group.xlsx
+++ b/prototype/alr_ig/output/StructureDefinition-alr-Group.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3273" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3273" uniqueCount="434">
   <si>
     <t>Path</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>Entity[determinerCode="GRP" or determinerCode="GRP_KIND"]</t>
+  </si>
+  <si>
+    <t>ALR Table 1-1</t>
   </si>
   <si>
     <t>Group.id</t>
@@ -1778,12 +1781,12 @@
         <v>39</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1794,7 +1797,7 @@
         <v>40</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>39</v>
@@ -1803,19 +1806,19 @@
         <v>39</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1865,13 +1868,13 @@
         <v>39</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>39</v>
@@ -1891,7 +1894,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1902,7 +1905,7 @@
         <v>40</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>39</v>
@@ -1911,16 +1914,16 @@
         <v>39</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1971,19 +1974,19 @@
         <v>39</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>39</v>
@@ -1997,7 +2000,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2008,7 +2011,7 @@
         <v>40</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>39</v>
@@ -2020,13 +2023,13 @@
         <v>39</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -2077,13 +2080,13 @@
         <v>39</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>39</v>
@@ -2092,7 +2095,7 @@
         <v>39</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>39</v>
@@ -2103,11 +2106,11 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -2126,16 +2129,16 @@
         <v>39</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2173,19 +2176,19 @@
         <v>39</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>40</v>
@@ -2197,10 +2200,10 @@
         <v>39</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>39</v>
@@ -2211,7 +2214,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -2222,7 +2225,7 @@
         <v>40</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>39</v>
@@ -2231,19 +2234,19 @@
         <v>39</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2293,19 +2296,19 @@
         <v>39</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>39</v>
@@ -2319,7 +2322,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -2327,31 +2330,31 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2401,19 +2404,19 @@
         <v>39</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>39</v>
@@ -2427,7 +2430,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2438,7 +2441,7 @@
         <v>40</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>39</v>
@@ -2447,19 +2450,19 @@
         <v>39</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2509,19 +2512,19 @@
         <v>39</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>39</v>
@@ -2535,7 +2538,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -2555,19 +2558,19 @@
         <v>39</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2617,7 +2620,7 @@
         <v>39</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>40</v>
@@ -2629,7 +2632,7 @@
         <v>39</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>39</v>
@@ -2643,7 +2646,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2663,19 +2666,19 @@
         <v>39</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2701,13 +2704,13 @@
         <v>39</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>39</v>
@@ -2725,7 +2728,7 @@
         <v>39</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>40</v>
@@ -2737,7 +2740,7 @@
         <v>39</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>39</v>
@@ -2751,7 +2754,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2771,19 +2774,19 @@
         <v>39</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2809,13 +2812,13 @@
         <v>39</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>39</v>
@@ -2833,7 +2836,7 @@
         <v>39</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>40</v>
@@ -2845,7 +2848,7 @@
         <v>39</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>39</v>
@@ -2859,7 +2862,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2870,28 +2873,28 @@
         <v>40</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2941,19 +2944,19 @@
         <v>39</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>39</v>
@@ -2967,7 +2970,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2978,7 +2981,7 @@
         <v>40</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>39</v>
@@ -2990,16 +2993,16 @@
         <v>39</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3025,13 +3028,13 @@
         <v>39</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>39</v>
@@ -3049,19 +3052,19 @@
         <v>39</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>39</v>
@@ -3075,18 +3078,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>39</v>
@@ -3098,16 +3101,16 @@
         <v>39</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3157,22 +3160,22 @@
         <v>39</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>39</v>
@@ -3183,11 +3186,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3206,16 +3209,16 @@
         <v>39</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3265,7 +3268,7 @@
         <v>39</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>40</v>
@@ -3280,7 +3283,7 @@
         <v>39</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>39</v>
@@ -3291,7 +3294,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3314,13 +3317,13 @@
         <v>39</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3359,17 +3362,17 @@
         <v>39</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>40</v>
@@ -3381,7 +3384,7 @@
         <v>39</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>39</v>
@@ -3395,10 +3398,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>39</v>
@@ -3408,10 +3411,10 @@
         <v>40</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>39</v>
@@ -3420,13 +3423,13 @@
         <v>39</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3477,7 +3480,7 @@
         <v>39</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>40</v>
@@ -3486,10 +3489,10 @@
         <v>41</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>39</v>
@@ -3503,11 +3506,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3520,25 +3523,25 @@
         <v>39</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>39</v>
@@ -3587,7 +3590,7 @@
         <v>39</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>40</v>
@@ -3599,10 +3602,10 @@
         <v>39</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>39</v>
@@ -3613,7 +3616,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3627,26 +3630,26 @@
         <v>41</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>39</v>
@@ -3683,17 +3686,17 @@
         <v>39</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
@@ -3705,13 +3708,13 @@
         <v>39</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>39</v>
@@ -3719,10 +3722,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>39</v>
@@ -3735,26 +3738,26 @@
         <v>41</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>39</v>
@@ -3803,7 +3806,7 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
@@ -3815,13 +3818,13 @@
         <v>39</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>39</v>
@@ -3829,7 +3832,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3840,7 +3843,7 @@
         <v>40</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>39</v>
@@ -3852,13 +3855,13 @@
         <v>39</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3909,13 +3912,13 @@
         <v>39</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>39</v>
@@ -3924,7 +3927,7 @@
         <v>39</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>39</v>
@@ -3935,11 +3938,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3958,16 +3961,16 @@
         <v>39</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4005,19 +4008,19 @@
         <v>39</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -4029,10 +4032,10 @@
         <v>39</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>39</v>
@@ -4043,7 +4046,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4054,31 +4057,31 @@
         <v>40</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>39</v>
@@ -4103,13 +4106,13 @@
         <v>39</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>39</v>
@@ -4127,22 +4130,22 @@
         <v>39</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>39</v>
@@ -4153,7 +4156,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4161,34 +4164,34 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>39</v>
@@ -4213,13 +4216,13 @@
         <v>39</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>39</v>
@@ -4237,22 +4240,22 @@
         <v>39</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>39</v>
@@ -4263,7 +4266,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4274,7 +4277,7 @@
         <v>40</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>39</v>
@@ -4286,13 +4289,13 @@
         <v>39</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4343,13 +4346,13 @@
         <v>39</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>39</v>
@@ -4358,7 +4361,7 @@
         <v>39</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>39</v>
@@ -4369,11 +4372,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4392,16 +4395,16 @@
         <v>39</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4439,19 +4442,19 @@
         <v>39</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
@@ -4463,10 +4466,10 @@
         <v>39</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>39</v>
@@ -4477,7 +4480,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4485,34 +4488,34 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>39</v>
@@ -4561,7 +4564,7 @@
         <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
@@ -4573,10 +4576,10 @@
         <v>39</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>39</v>
@@ -4587,7 +4590,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4598,7 +4601,7 @@
         <v>40</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>39</v>
@@ -4610,13 +4613,13 @@
         <v>39</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4667,13 +4670,13 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>39</v>
@@ -4682,7 +4685,7 @@
         <v>39</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>39</v>
@@ -4693,11 +4696,11 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4716,16 +4719,16 @@
         <v>39</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4763,19 +4766,19 @@
         <v>39</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
@@ -4787,10 +4790,10 @@
         <v>39</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>39</v>
@@ -4801,7 +4804,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4809,41 +4812,41 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>39</v>
@@ -4885,22 +4888,22 @@
         <v>39</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>39</v>
@@ -4911,7 +4914,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4922,7 +4925,7 @@
         <v>40</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>39</v>
@@ -4931,19 +4934,19 @@
         <v>39</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4993,22 +4996,22 @@
         <v>39</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>39</v>
@@ -5019,7 +5022,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5027,39 +5030,39 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>39</v>
@@ -5101,22 +5104,22 @@
         <v>39</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>39</v>
@@ -5127,7 +5130,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5138,7 +5141,7 @@
         <v>40</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>39</v>
@@ -5147,20 +5150,20 @@
         <v>39</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>39</v>
@@ -5209,22 +5212,22 @@
         <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>39</v>
@@ -5235,7 +5238,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5246,7 +5249,7 @@
         <v>40</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>39</v>
@@ -5255,22 +5258,22 @@
         <v>39</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>39</v>
@@ -5319,22 +5322,22 @@
         <v>39</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>39</v>
@@ -5345,7 +5348,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5356,7 +5359,7 @@
         <v>40</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>39</v>
@@ -5365,22 +5368,22 @@
         <v>39</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>39</v>
@@ -5429,22 +5432,22 @@
         <v>39</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>39</v>
@@ -5455,7 +5458,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5463,34 +5466,34 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>39</v>
@@ -5503,7 +5506,7 @@
         <v>39</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>39</v>
@@ -5539,22 +5542,22 @@
         <v>39</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>39</v>
@@ -5565,7 +5568,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5573,31 +5576,31 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5611,7 +5614,7 @@
         <v>39</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>39</v>
@@ -5647,22 +5650,22 @@
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>39</v>
@@ -5673,7 +5676,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5684,7 +5687,7 @@
         <v>40</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>39</v>
@@ -5693,16 +5696,16 @@
         <v>39</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5753,22 +5756,22 @@
         <v>39</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>39</v>
@@ -5779,7 +5782,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5790,7 +5793,7 @@
         <v>40</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>39</v>
@@ -5799,19 +5802,19 @@
         <v>39</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5861,22 +5864,22 @@
         <v>39</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>39</v>
@@ -5887,10 +5890,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>39</v>
@@ -5903,26 +5906,26 @@
         <v>41</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>39</v>
@@ -5971,7 +5974,7 @@
         <v>39</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
@@ -5983,13 +5986,13 @@
         <v>39</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>39</v>
@@ -5997,7 +6000,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6008,7 +6011,7 @@
         <v>40</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>39</v>
@@ -6020,13 +6023,13 @@
         <v>39</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6077,13 +6080,13 @@
         <v>39</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>39</v>
@@ -6092,7 +6095,7 @@
         <v>39</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>39</v>
@@ -6103,11 +6106,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6126,16 +6129,16 @@
         <v>39</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6173,19 +6176,19 @@
         <v>39</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>40</v>
@@ -6197,10 +6200,10 @@
         <v>39</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>39</v>
@@ -6211,7 +6214,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6222,31 +6225,31 @@
         <v>40</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>39</v>
@@ -6271,13 +6274,13 @@
         <v>39</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>39</v>
@@ -6295,22 +6298,22 @@
         <v>39</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>39</v>
@@ -6321,7 +6324,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6329,34 +6332,34 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>39</v>
@@ -6381,13 +6384,13 @@
         <v>39</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>39</v>
@@ -6405,22 +6408,22 @@
         <v>39</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>39</v>
@@ -6431,7 +6434,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6442,7 +6445,7 @@
         <v>40</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>39</v>
@@ -6454,13 +6457,13 @@
         <v>39</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6511,13 +6514,13 @@
         <v>39</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>39</v>
@@ -6526,7 +6529,7 @@
         <v>39</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>39</v>
@@ -6537,11 +6540,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6560,16 +6563,16 @@
         <v>39</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6607,19 +6610,19 @@
         <v>39</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
@@ -6631,10 +6634,10 @@
         <v>39</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>39</v>
@@ -6645,7 +6648,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6653,34 +6656,34 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>39</v>
@@ -6729,7 +6732,7 @@
         <v>39</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
@@ -6741,10 +6744,10 @@
         <v>39</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>39</v>
@@ -6755,7 +6758,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6766,7 +6769,7 @@
         <v>40</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>39</v>
@@ -6778,13 +6781,13 @@
         <v>39</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6835,13 +6838,13 @@
         <v>39</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>39</v>
@@ -6850,7 +6853,7 @@
         <v>39</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>39</v>
@@ -6861,11 +6864,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -6884,16 +6887,16 @@
         <v>39</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -6931,19 +6934,19 @@
         <v>39</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
@@ -6955,10 +6958,10 @@
         <v>39</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>39</v>
@@ -6969,7 +6972,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6977,41 +6980,41 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>39</v>
@@ -7053,22 +7056,22 @@
         <v>39</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>39</v>
@@ -7079,7 +7082,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7090,7 +7093,7 @@
         <v>40</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>39</v>
@@ -7099,19 +7102,19 @@
         <v>39</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7161,22 +7164,22 @@
         <v>39</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>39</v>
@@ -7187,7 +7190,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7195,39 +7198,39 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>39</v>
@@ -7269,22 +7272,22 @@
         <v>39</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>39</v>
@@ -7295,7 +7298,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7306,7 +7309,7 @@
         <v>40</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>39</v>
@@ -7315,20 +7318,20 @@
         <v>39</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>39</v>
@@ -7377,22 +7380,22 @@
         <v>39</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>39</v>
@@ -7403,7 +7406,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7414,7 +7417,7 @@
         <v>40</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>39</v>
@@ -7423,22 +7426,22 @@
         <v>39</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>39</v>
@@ -7487,22 +7490,22 @@
         <v>39</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>39</v>
@@ -7513,7 +7516,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7524,7 +7527,7 @@
         <v>40</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>39</v>
@@ -7533,22 +7536,22 @@
         <v>39</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>39</v>
@@ -7597,22 +7600,22 @@
         <v>39</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>39</v>
@@ -7623,7 +7626,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7631,34 +7634,34 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>39</v>
@@ -7671,7 +7674,7 @@
         <v>39</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>39</v>
@@ -7707,22 +7710,22 @@
         <v>39</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>39</v>
@@ -7733,7 +7736,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7741,31 +7744,31 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -7779,7 +7782,7 @@
         <v>39</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>39</v>
@@ -7815,22 +7818,22 @@
         <v>39</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>39</v>
@@ -7841,7 +7844,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7852,7 +7855,7 @@
         <v>40</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>39</v>
@@ -7861,16 +7864,16 @@
         <v>39</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7921,22 +7924,22 @@
         <v>39</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>39</v>
@@ -7947,7 +7950,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7958,7 +7961,7 @@
         <v>40</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>39</v>
@@ -7967,19 +7970,19 @@
         <v>39</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8029,22 +8032,22 @@
         <v>39</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>39</v>
@@ -8055,7 +8058,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8066,35 +8069,35 @@
         <v>40</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P61" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q61" t="s" s="2">
         <v>39</v>
@@ -8139,25 +8142,25 @@
         <v>39</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>39</v>
@@ -8165,7 +8168,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8173,41 +8176,41 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="R62" t="s" s="2">
         <v>39</v>
@@ -8225,13 +8228,13 @@
         <v>39</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>39</v>
@@ -8249,25 +8252,25 @@
         <v>39</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>39</v>
@@ -8275,7 +8278,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8283,39 +8286,39 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="R63" t="s" s="2">
         <v>39</v>
@@ -8357,25 +8360,25 @@
         <v>39</v>
       </c>
       <c r="AE63" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AK63" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>39</v>
@@ -8383,7 +8386,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8394,7 +8397,7 @@
         <v>40</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>39</v>
@@ -8403,19 +8406,19 @@
         <v>39</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8441,10 +8444,10 @@
         <v>39</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Y64" t="s" s="2">
         <v>39</v>
@@ -8465,25 +8468,25 @@
         <v>39</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>39</v>
@@ -8491,7 +8494,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8502,29 +8505,29 @@
         <v>40</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>39</v>
@@ -8573,22 +8576,22 @@
         <v>39</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>39</v>
@@ -8599,7 +8602,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8610,7 +8613,7 @@
         <v>40</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>39</v>
@@ -8619,22 +8622,22 @@
         <v>39</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>39</v>
@@ -8683,22 +8686,22 @@
         <v>39</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>39</v>
@@ -8709,7 +8712,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8717,31 +8720,31 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -8791,19 +8794,19 @@
         <v>39</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>39</v>
@@ -8817,7 +8820,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8840,19 +8843,19 @@
         <v>39</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>39</v>
@@ -8901,7 +8904,7 @@
         <v>39</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>40</v>
@@ -8913,10 +8916,10 @@
         <v>39</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>39</v>
@@ -8927,7 +8930,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8938,7 +8941,7 @@
         <v>40</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>39</v>
@@ -8950,13 +8953,13 @@
         <v>39</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9007,13 +9010,13 @@
         <v>39</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>39</v>
@@ -9022,7 +9025,7 @@
         <v>39</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>39</v>
@@ -9033,11 +9036,11 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9056,16 +9059,16 @@
         <v>39</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9115,7 +9118,7 @@
         <v>39</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>40</v>
@@ -9127,10 +9130,10 @@
         <v>39</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>39</v>
@@ -9141,11 +9144,11 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9158,25 +9161,25 @@
         <v>39</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>39</v>
@@ -9225,7 +9228,7 @@
         <v>39</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>40</v>
@@ -9237,10 +9240,10 @@
         <v>39</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>39</v>
@@ -9251,7 +9254,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9259,10 +9262,10 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>39</v>
@@ -9274,17 +9277,17 @@
         <v>39</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>39</v>
@@ -9309,10 +9312,10 @@
         <v>39</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Y72" t="s" s="2">
         <v>39</v>
@@ -9333,22 +9336,22 @@
         <v>39</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>39</v>
@@ -9359,7 +9362,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9367,10 +9370,10 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>39</v>
@@ -9382,19 +9385,19 @@
         <v>39</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>39</v>
@@ -9419,10 +9422,10 @@
         <v>39</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Y73" t="s" s="2">
         <v>39</v>
@@ -9443,22 +9446,22 @@
         <v>39</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>39</v>
@@ -9469,7 +9472,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9477,10 +9480,10 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>39</v>
@@ -9492,19 +9495,19 @@
         <v>39</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>39</v>
@@ -9553,22 +9556,22 @@
         <v>39</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>39</v>
@@ -9579,7 +9582,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9590,7 +9593,7 @@
         <v>40</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>39</v>
@@ -9602,13 +9605,13 @@
         <v>39</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -9659,19 +9662,19 @@
         <v>39</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>39</v>
@@ -9685,7 +9688,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9699,7 +9702,7 @@
         <v>41</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>39</v>
@@ -9708,17 +9711,17 @@
         <v>39</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>39</v>
@@ -9767,7 +9770,7 @@
         <v>39</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>40</v>
@@ -9776,13 +9779,13 @@
         <v>41</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>39</v>
@@ -9793,7 +9796,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9804,7 +9807,7 @@
         <v>40</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>39</v>
@@ -9816,13 +9819,13 @@
         <v>39</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -9873,13 +9876,13 @@
         <v>39</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>39</v>
@@ -9888,7 +9891,7 @@
         <v>39</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>39</v>
@@ -9899,7 +9902,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9922,13 +9925,13 @@
         <v>39</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -9967,17 +9970,17 @@
         <v>39</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB78" s="2"/>
       <c r="AC78" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD78" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>40</v>
@@ -9989,7 +9992,7 @@
         <v>39</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>39</v>
@@ -10003,10 +10006,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C79" t="s" s="2">
         <v>39</v>
@@ -10016,10 +10019,10 @@
         <v>40</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>39</v>
@@ -10028,13 +10031,13 @@
         <v>39</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10085,7 +10088,7 @@
         <v>39</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>40</v>
@@ -10094,10 +10097,10 @@
         <v>41</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>39</v>
@@ -10111,7 +10114,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10122,7 +10125,7 @@
         <v>40</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>39</v>
@@ -10134,13 +10137,13 @@
         <v>39</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10191,13 +10194,13 @@
         <v>39</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>39</v>
@@ -10206,7 +10209,7 @@
         <v>39</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>39</v>
@@ -10217,11 +10220,11 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10240,16 +10243,16 @@
         <v>39</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -10287,19 +10290,19 @@
         <v>39</v>
       </c>
       <c r="AA81" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC81" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD81" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>40</v>
@@ -10311,10 +10314,10 @@
         <v>39</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>39</v>
@@ -10325,7 +10328,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10333,10 +10336,10 @@
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>39</v>
@@ -10348,16 +10351,16 @@
         <v>39</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -10365,7 +10368,7 @@
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="R82" t="s" s="2">
         <v>39</v>
@@ -10407,13 +10410,13 @@
         <v>39</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>39</v>
@@ -10422,7 +10425,7 @@
         <v>39</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>39</v>
@@ -10433,7 +10436,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10444,7 +10447,7 @@
         <v>40</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>39</v>
@@ -10456,13 +10459,13 @@
         <v>39</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -10489,44 +10492,44 @@
         <v>39</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AB83" s="2"/>
       <c r="AC83" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD83" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>39</v>
@@ -10537,10 +10540,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C84" t="s" s="2">
         <v>39</v>
@@ -10550,7 +10553,7 @@
         <v>40</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>39</v>
@@ -10562,13 +10565,13 @@
         <v>39</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -10595,13 +10598,13 @@
         <v>39</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>39</v>
@@ -10619,36 +10622,36 @@
         <v>39</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C85" t="s" s="2">
         <v>39</v>
@@ -10658,10 +10661,10 @@
         <v>40</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>39</v>
@@ -10670,13 +10673,13 @@
         <v>39</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10727,7 +10730,7 @@
         <v>39</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>40</v>
@@ -10736,10 +10739,10 @@
         <v>41</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>39</v>
@@ -10753,10 +10756,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C86" t="s" s="2">
         <v>39</v>
@@ -10766,10 +10769,10 @@
         <v>40</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>39</v>
@@ -10778,13 +10781,13 @@
         <v>39</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -10835,7 +10838,7 @@
         <v>39</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>40</v>
@@ -10844,10 +10847,10 @@
         <v>41</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>39</v>
@@ -10861,10 +10864,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C87" t="s" s="2">
         <v>39</v>
@@ -10874,10 +10877,10 @@
         <v>40</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>39</v>
@@ -10886,13 +10889,13 @@
         <v>39</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -10943,7 +10946,7 @@
         <v>39</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>40</v>
@@ -10955,7 +10958,7 @@
         <v>39</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>39</v>
@@ -10964,15 +10967,15 @@
         <v>39</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C88" t="s" s="2">
         <v>39</v>
@@ -10982,10 +10985,10 @@
         <v>40</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>39</v>
@@ -10994,13 +10997,13 @@
         <v>39</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -11051,7 +11054,7 @@
         <v>39</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>40</v>
@@ -11063,7 +11066,7 @@
         <v>39</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>39</v>
@@ -11072,15 +11075,15 @@
         <v>39</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C89" t="s" s="2">
         <v>39</v>
@@ -11090,10 +11093,10 @@
         <v>40</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>39</v>
@@ -11102,13 +11105,13 @@
         <v>39</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11159,7 +11162,7 @@
         <v>39</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>40</v>
@@ -11171,7 +11174,7 @@
         <v>39</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>39</v>
@@ -11180,15 +11183,15 @@
         <v>39</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C90" t="s" s="2">
         <v>39</v>
@@ -11198,10 +11201,10 @@
         <v>40</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>39</v>
@@ -11210,13 +11213,13 @@
         <v>39</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11267,7 +11270,7 @@
         <v>39</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>40</v>
@@ -11279,7 +11282,7 @@
         <v>39</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>39</v>
@@ -11288,15 +11291,15 @@
         <v>39</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C91" t="s" s="2">
         <v>39</v>
@@ -11306,10 +11309,10 @@
         <v>40</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>39</v>
@@ -11318,13 +11321,13 @@
         <v>39</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -11375,7 +11378,7 @@
         <v>39</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>40</v>
@@ -11387,7 +11390,7 @@
         <v>39</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>39</v>
@@ -11396,15 +11399,15 @@
         <v>39</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C92" t="s" s="2">
         <v>39</v>
@@ -11414,10 +11417,10 @@
         <v>40</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>39</v>
@@ -11426,13 +11429,13 @@
         <v>39</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -11483,7 +11486,7 @@
         <v>39</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>40</v>
@@ -11495,7 +11498,7 @@
         <v>39</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>39</v>
@@ -11504,16 +11507,16 @@
         <v>39</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -11526,25 +11529,25 @@
         <v>39</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>39</v>
@@ -11593,7 +11596,7 @@
         <v>39</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>40</v>
@@ -11605,10 +11608,10 @@
         <v>39</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>39</v>
@@ -11619,7 +11622,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11627,13 +11630,13 @@
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>39</v>
@@ -11642,13 +11645,13 @@
         <v>39</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -11699,19 +11702,19 @@
         <v>39</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>39</v>
@@ -11725,7 +11728,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11736,10 +11739,10 @@
         <v>40</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>39</v>
@@ -11748,23 +11751,23 @@
         <v>39</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P95" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q95" t="s" s="2">
         <v>39</v>
@@ -11809,19 +11812,19 @@
         <v>39</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>39</v>
@@ -11835,7 +11838,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -11846,10 +11849,10 @@
         <v>40</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>39</v>
@@ -11858,23 +11861,23 @@
         <v>39</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P96" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q96" t="s" s="2">
         <v>39</v>
@@ -11919,19 +11922,19 @@
         <v>39</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>39</v>

--- a/prototype/alr_ig/output/StructureDefinition-alr-Group.xlsx
+++ b/prototype/alr_ig/output/StructureDefinition-alr-Group.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$97</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3273" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3307" uniqueCount="438">
   <si>
     <t>Path</t>
   </si>
@@ -159,7 +159,7 @@
     <t>Entity[determinerCode="GRP" or determinerCode="GRP_KIND"]</t>
   </si>
   <si>
-    <t>ALR Table 1-1</t>
+    <t>ALR Table 1-6</t>
   </si>
   <si>
     <t>Group.id</t>
@@ -1248,7 +1248,7 @@
     <t>ALR Change Reason Description</t>
   </si>
   <si>
-    <t>OTHER_SHARED_SAV_INT</t>
+    <t>NOFND_R06</t>
   </si>
   <si>
     <t>ext-claimsBasedAssignmentFlag</t>
@@ -1317,6 +1317,19 @@
   </si>
   <si>
     <t>IN_VA_MAX</t>
+  </si>
+  <si>
+    <t>ext-vaSelectionOnlyFlag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://alr.cms.gov/ig/StructureDefinition/ext-vaSelectionOnlyFlag}
+</t>
+  </si>
+  <si>
+    <t>ALR Voluntary Alignment Selection Only</t>
+  </si>
+  <si>
+    <t>VA_SELECTION_ONLY</t>
   </si>
   <si>
     <t>Group.member.modifierExtension</t>
@@ -1511,7 +1524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL96"/>
+  <dimension ref="A1:AL97"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -11510,45 +11523,43 @@
         <v>418</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B93" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>332</v>
+        <v>39</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>69</v>
+        <v>420</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>333</v>
+        <v>421</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>39</v>
       </c>
@@ -11596,7 +11607,7 @@
         <v>39</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>335</v>
+        <v>76</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>40</v>
@@ -11611,50 +11622,54 @@
         <v>77</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>39</v>
+        <v>422</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>39</v>
+        <v>332</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H94" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H94" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="I94" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>421</v>
+        <v>69</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>422</v>
+        <v>333</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O94" t="s" s="2">
         <v>39</v>
       </c>
@@ -11702,22 +11717,22 @@
         <v>39</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>420</v>
+        <v>335</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>39</v>
@@ -11736,7 +11751,7 @@
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F95" t="s" s="2">
         <v>49</v>
@@ -11751,24 +11766,20 @@
         <v>39</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>261</v>
+        <v>425</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M95" s="2"/>
-      <c r="N95" t="s" s="2">
-        <v>427</v>
-      </c>
+      <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="P95" t="s" s="2">
-        <v>428</v>
-      </c>
+      <c r="P95" s="2"/>
       <c r="Q95" t="s" s="2">
         <v>39</v>
       </c>
@@ -11815,7 +11826,7 @@
         <v>424</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>49</v>
@@ -11838,7 +11849,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -11861,24 +11872,24 @@
         <v>39</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P96" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="O96" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P96" t="s" s="2">
-        <v>433</v>
-      </c>
       <c r="Q96" t="s" s="2">
         <v>39</v>
       </c>
@@ -11922,7 +11933,7 @@
         <v>39</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>40</v>
@@ -11946,8 +11957,118 @@
         <v>39</v>
       </c>
     </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M97" s="2"/>
+      <c r="N97" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P97" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="Q97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AL96">
+  <autoFilter ref="A1:AL97">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11957,7 +12078,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI95">
+  <conditionalFormatting sqref="A2:AI96">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/prototype/alr_ig/output/StructureDefinition-alr-Group.xlsx
+++ b/prototype/alr_ig/output/StructureDefinition-alr-Group.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$98</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3307" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3341" uniqueCount="441">
   <si>
     <t>Path</t>
   </si>
@@ -1317,6 +1317,16 @@
   </si>
   <si>
     <t>IN_VA_MAX</t>
+  </si>
+  <si>
+    <t>ext-voluntaryAlignmentProvider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://alr.cms.gov/ig/StructureDefinition/ext-voluntaryAlignmentProvider}
+</t>
+  </si>
+  <si>
+    <t>ALR Voluntary Alignment Provider</t>
   </si>
   <si>
     <t>ext-vaSelectionOnlyFlag</t>
@@ -1524,7 +1534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL97"/>
+  <dimension ref="A1:AL98"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -11538,7 +11548,7 @@
         <v>40</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>50</v>
@@ -11628,48 +11638,46 @@
         <v>39</v>
       </c>
       <c r="AL93" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B94" t="s" s="2">
         <v>422</v>
       </c>
-    </row>
-    <row r="94" hidden="true">
-      <c r="A94" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>332</v>
+        <v>39</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>69</v>
+        <v>423</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>333</v>
+        <v>424</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>39</v>
       </c>
@@ -11717,7 +11725,7 @@
         <v>39</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>335</v>
+        <v>76</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>40</v>
@@ -11732,50 +11740,54 @@
         <v>77</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>39</v>
+        <v>425</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>39</v>
+        <v>332</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H95" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H95" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="I95" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>425</v>
+        <v>69</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>426</v>
+        <v>333</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O95" t="s" s="2">
         <v>39</v>
       </c>
@@ -11823,22 +11835,22 @@
         <v>39</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>424</v>
+        <v>335</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>39</v>
@@ -11849,7 +11861,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -11857,7 +11869,7 @@
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F96" t="s" s="2">
         <v>49</v>
@@ -11872,7 +11884,7 @@
         <v>39</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>261</v>
+        <v>428</v>
       </c>
       <c r="K96" t="s" s="2">
         <v>429</v>
@@ -11881,15 +11893,11 @@
         <v>430</v>
       </c>
       <c r="M96" s="2"/>
-      <c r="N96" t="s" s="2">
-        <v>431</v>
-      </c>
+      <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="P96" t="s" s="2">
-        <v>432</v>
-      </c>
+      <c r="P96" s="2"/>
       <c r="Q96" t="s" s="2">
         <v>39</v>
       </c>
@@ -11933,10 +11941,10 @@
         <v>39</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>49</v>
@@ -11959,7 +11967,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -11982,23 +11990,23 @@
         <v>39</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P97" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="Q97" t="s" s="2">
         <v>39</v>
@@ -12043,7 +12051,7 @@
         <v>39</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>40</v>
@@ -12067,8 +12075,118 @@
         <v>39</v>
       </c>
     </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M98" s="2"/>
+      <c r="N98" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P98" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="Q98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AL97">
+  <autoFilter ref="A1:AL98">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12078,7 +12196,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI96">
+  <conditionalFormatting sqref="A2:AI97">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
